--- a/biology/Mycologie/Marcel_Josserand/Marcel_Josserand.xlsx
+++ b/biology/Mycologie/Marcel_Josserand/Marcel_Josserand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Josserand est un mycologue français né le 5 octobre 1900 à Lyon et mort le 28 mars 1992.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Josserand est né le 5 octobre 1900 à Lyon[1]. Son père est un industriel, il a un oncle juriste et un autre qui est médecin[2]. Il est un membre de la Société linnéenne de Lyon[2]. Il a été élu le 4 juin 1945 à l'Académie des sciences, belles-lettres et arts de Lyon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Josserand est né le 5 octobre 1900 à Lyon. Son père est un industriel, il a un oncle juriste et un autre qui est médecin. Il est un membre de la Société linnéenne de Lyon. Il a été élu le 4 juin 1945 à l'Académie des sciences, belles-lettres et arts de Lyon.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La description des Champignons supérieurs (Basidiomycètes charnus) : technique descriptive, vocabulaire raisonné du descripteur  (ISBN 2720505072),  (ISBN 9782720505072)
-Mémoires : Importance de l'ornementation piléique pour la détermination des Coprins et L'étude des Coprins fimicoles, ASIN B0000DRK90[4],[5].</t>
+Mémoires : Importance de l'ornementation piléique pour la détermination des Coprins et L'étude des Coprins fimicoles, ASIN B0000DRK90,.</t>
         </is>
       </c>
     </row>
